--- a/tools/language/多语言对照表.xlsx
+++ b/tools/language/多语言对照表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Android\babycare\tools\language\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C65E37-1A37-48F6-849E-824E824D3C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="12660" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="4" r:id="rId1"/>
@@ -24,17 +18,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>codeKey</t>
   </si>
@@ -261,163 +254,149 @@
     <t>Name is null</t>
   </si>
   <si>
+    <t>breast</t>
+  </si>
+  <si>
     <t>母乳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>breast</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>奶粉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>solidFood</t>
   </si>
   <si>
     <t>辅食（米糊、蔬菜泥、水果泥等）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>solidFood</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid food</t>
+  </si>
+  <si>
+    <t>mixedFeeding</t>
   </si>
   <si>
     <t>混合喂养</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mixedFeeding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solid food</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mixed feeding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feeding</t>
   </si>
   <si>
     <t>喂养</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Feeding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>feeding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeping</t>
   </si>
   <si>
     <t>睡眠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sleeping</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleeping</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>today</t>
   </si>
   <si>
     <t>今天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Today</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>today</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
   </si>
   <si>
     <t>下一次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>next</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Next</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>countAndTotalTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数:%@,总时长:%@分钟（白天:%@;夜里:%@）</t>
   </si>
   <si>
     <t>avgTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>平均每次时长:%@</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>preGap</t>
   </si>
   <si>
     <t>距上次的时间%@</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>preGap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数:%@,总时长:%@分钟（白天:%@;夜里:%@）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannotPredict</t>
   </si>
   <si>
     <t>无法预测</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cannotPredict</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>predictNextIn</t>
   </si>
   <si>
     <t>预测下一次在</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>predictNextIn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>timeThis</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>时长:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
   </si>
   <si>
     <t>分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>end time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -429,7 +408,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -441,14 +420,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -457,12 +428,154 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +588,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -499,10 +798,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,22 +1058,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -800,28 +1381,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.8557692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" ht="16.8" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +1488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15">
+    <row r="2" ht="16.8" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -943,7 +1524,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="15">
+    <row r="3" ht="16.8" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -979,7 +1560,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="15">
+    <row r="4" ht="16.8" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1015,7 +1596,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1026,7 +1607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1037,7 +1618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1048,7 +1629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1059,7 +1640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1067,7 +1648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1075,7 +1656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1083,7 +1664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1091,7 +1672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1099,7 +1680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1110,7 +1691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1121,7 +1702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1167,13 +1748,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1189,13 +1770,13 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1203,7 +1784,7 @@
         <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>84</v>
@@ -1211,97 +1792,97 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1314,18 +1895,40 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>111</v>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{A45EFAB3-D211-442E-A769-592DABC5C073}"/>
+    <hyperlink ref="B31" r:id="rId1" display="距上次的时间%@"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tools/language/多语言对照表.xlsx
+++ b/tools/language/多语言对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12660" windowHeight="7440"/>
+    <workbookView windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>codeKey</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>end time</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>概况</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -415,13 +424,6 @@
       <color rgb="FF000000"/>
       <name val="宋体-简"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -899,146 +901,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,10 +1057,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,12 +1391,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
@@ -1923,6 +1925,17 @@
         <v>118</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B31" r:id="rId1" display="距上次的时间%@"/>
